--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>sym_1</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>VANRYUSDT</t>
+  </si>
+  <si>
+    <t>AKROUSDT</t>
+  </si>
+  <si>
+    <t>CROUSDT</t>
+  </si>
+  <si>
+    <t>ONGUSDT</t>
+  </si>
+  <si>
+    <t>VRAUSDT</t>
+  </si>
+  <si>
+    <t>QIUSDT</t>
+  </si>
+  <si>
+    <t>REQUSDT</t>
   </si>
 </sst>
 </file>
@@ -117,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -125,9 +143,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +466,7 @@
     <col min="8" max="8" width="25.21875" customWidth="1"/>
     <col min="9" max="9" width="16.77734375" customWidth="1"/>
     <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -555,252 +570,114 @@
       <c r="J3" s="2">
         <v>0.08</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K4" s="4"/>
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="E4">
+        <v>-3.37</v>
+      </c>
+      <c r="F4">
+        <v>5.5990459763239207E-2</v>
+      </c>
+      <c r="G4">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>-3.85</v>
+      </c>
+      <c r="I4">
+        <v>-3.65</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K5" s="4"/>
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>0.01</v>
+      </c>
+      <c r="D5">
+        <v>-4.08</v>
+      </c>
+      <c r="E5">
+        <v>-3.37</v>
+      </c>
+      <c r="F5">
+        <v>98.223341467382909</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>-3.45</v>
+      </c>
+      <c r="I5">
+        <v>-3.65</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K68" s="4"/>
-    </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K70" s="4"/>
-    </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K71" s="4"/>
-    </row>
-    <row r="72" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K72" s="4"/>
-    </row>
-    <row r="73" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K73" s="4"/>
-    </row>
-    <row r="74" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K74" s="4"/>
-    </row>
-    <row r="75" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K75" s="4"/>
-    </row>
-    <row r="76" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K76" s="4"/>
-    </row>
-    <row r="77" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K77" s="4"/>
-    </row>
-    <row r="78" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K78" s="4"/>
-    </row>
-    <row r="79" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K79" s="4"/>
-    </row>
-    <row r="80" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K80" s="4"/>
-    </row>
-    <row r="81" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K81" s="4"/>
-    </row>
-    <row r="82" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K82" s="4"/>
-    </row>
-    <row r="83" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K83" s="4"/>
-    </row>
-    <row r="84" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K84" s="4"/>
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="E6">
+        <v>-3.37</v>
+      </c>
+      <c r="F6">
+        <v>0.13678991239838459</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>2.5</v>
+      </c>
+      <c r="I6">
+        <v>2.68</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-0.08</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>sym_1</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>REQUSDT</t>
+  </si>
+  <si>
+    <t>ADAUSDT</t>
+  </si>
+  <si>
+    <t>COMPUSDT</t>
   </si>
 </sst>
 </file>
@@ -448,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,6 +685,41 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-4.13</v>
+      </c>
+      <c r="E7">
+        <v>-3.37</v>
+      </c>
+      <c r="F7">
+        <v>7.966338606583483E-3</v>
+      </c>
+      <c r="G7">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <v>3.3</v>
+      </c>
+      <c r="I7">
+        <v>3.22</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>sym_1</t>
   </si>
@@ -58,12 +58,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>FIDAUSDT</t>
-  </si>
-  <si>
-    <t>VANRYUSDT</t>
-  </si>
-  <si>
     <t>AKROUSDT</t>
   </si>
   <si>
@@ -86,6 +80,12 @@
   </si>
   <si>
     <t>COMPUSDT</t>
+  </si>
+  <si>
+    <t>CTSIUSDT</t>
+  </si>
+  <si>
+    <t>SPELLUSDT</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -150,6 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +458,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +470,7 @@
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" style="4" customWidth="1"/>
     <col min="9" max="9" width="16.77734375" customWidth="1"/>
     <col min="10" max="10" width="18.109375" customWidth="1"/>
     <col min="11" max="11" width="13.21875" style="3" customWidth="1"/>
@@ -532,7 +533,7 @@
       <c r="G2">
         <v>27</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>3</v>
       </c>
       <c r="I2">
@@ -553,31 +554,31 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <v>-4.74</v>
+        <v>-4.0599999999999996</v>
       </c>
       <c r="E3">
         <v>-3.37</v>
       </c>
       <c r="F3">
-        <v>3.1785863035005839</v>
+        <v>5.5990459763239207E-2</v>
       </c>
       <c r="G3">
-        <v>35</v>
-      </c>
-      <c r="H3">
-        <v>-3.3</v>
+        <v>29</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-3.85</v>
       </c>
       <c r="I3">
-        <v>-3.05</v>
+        <v>-3.65</v>
       </c>
       <c r="J3" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="K3" s="3">
-        <v>60</v>
+        <v>0.3</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -591,25 +592,25 @@
         <v>0.01</v>
       </c>
       <c r="D4">
-        <v>-4.0599999999999996</v>
+        <v>-4.08</v>
       </c>
       <c r="E4">
         <v>-3.37</v>
       </c>
       <c r="F4">
-        <v>5.5990459763239207E-2</v>
+        <v>98.223341467382909</v>
       </c>
       <c r="G4">
-        <v>29</v>
-      </c>
-      <c r="H4">
-        <v>-3.85</v>
+        <v>25</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-3.45</v>
       </c>
       <c r="I4">
         <v>-3.65</v>
       </c>
       <c r="J4" s="2">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>13</v>
@@ -623,28 +624,28 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-4.08</v>
+        <v>-4.5599999999999996</v>
       </c>
       <c r="E5">
         <v>-3.37</v>
       </c>
       <c r="F5">
-        <v>98.223341467382909</v>
+        <v>0.13678991239838459</v>
       </c>
       <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>-3.45</v>
+        <v>40</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.5</v>
       </c>
       <c r="I5">
-        <v>-3.65</v>
+        <v>2.68</v>
       </c>
       <c r="J5" s="2">
-        <v>-0.3</v>
+        <v>-0.08</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>13</v>
@@ -661,25 +662,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-4.5599999999999996</v>
+        <v>-4.13</v>
       </c>
       <c r="E6">
         <v>-3.37</v>
       </c>
       <c r="F6">
-        <v>0.13678991239838459</v>
+        <v>7.966338606583483E-3</v>
       </c>
       <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>2.5</v>
+        <v>44</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.3</v>
       </c>
       <c r="I6">
-        <v>2.68</v>
+        <v>3.22</v>
       </c>
       <c r="J6" s="2">
-        <v>-0.08</v>
+        <v>0.08</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>13</v>
@@ -696,25 +697,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>-4.13</v>
+        <v>-4.32</v>
       </c>
       <c r="E7">
         <v>-3.37</v>
       </c>
       <c r="F7">
-        <v>7.966338606583483E-3</v>
+        <v>230.94168313905911</v>
       </c>
       <c r="G7">
-        <v>44</v>
-      </c>
-      <c r="H7">
-        <v>3.3</v>
+        <v>36</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-3.4566369371518162</v>
       </c>
       <c r="I7">
-        <v>3.22</v>
+        <v>-3.53</v>
       </c>
       <c r="J7" s="2">
-        <v>0.08</v>
+        <v>-0.08</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>13</v>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>sym_1</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>SPELLUSDT</t>
+  </si>
+  <si>
+    <t>leverage</t>
+  </si>
+  <si>
+    <t>CFXUSDT</t>
+  </si>
+  <si>
+    <t>STXUSDT</t>
   </si>
 </sst>
 </file>
@@ -455,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +485,7 @@
     <col min="11" max="11" width="13.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +519,11 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -545,8 +557,11 @@
       <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -580,8 +595,11 @@
       <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -615,8 +633,11 @@
       <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -650,8 +671,11 @@
       <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -685,8 +709,11 @@
       <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -719,6 +746,35 @@
       </c>
       <c r="K7" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-4.2300000000000004</v>
+      </c>
+      <c r="E8">
+        <v>-3.37</v>
+      </c>
+      <c r="F8">
+        <v>9.4523754001526294E-2</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>sym_1</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>STXUSDT</t>
+  </si>
+  <si>
+    <t>MDTUSDT</t>
+  </si>
+  <si>
+    <t>SNTUSDT</t>
+  </si>
+  <si>
+    <t>API3USDT</t>
+  </si>
+  <si>
+    <t>XVSUSDT</t>
+  </si>
+  <si>
+    <t>POWRUSDT</t>
   </si>
 </sst>
 </file>
@@ -464,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,6 +791,132 @@
       <c r="H8">
         <v>2.2999999999999998</v>
       </c>
+      <c r="I8">
+        <v>2.09</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-4.3099999999999996</v>
+      </c>
+      <c r="E9">
+        <v>-3.37</v>
+      </c>
+      <c r="F9">
+        <v>1.813220954117811</v>
+      </c>
+      <c r="G9">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I9">
+        <v>-2.6</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="E10">
+        <v>-3.37</v>
+      </c>
+      <c r="F10">
+        <v>2881.7196205906639</v>
+      </c>
+      <c r="G10">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>-2.7</v>
+      </c>
+      <c r="I10">
+        <v>-2.42</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>-3.92</v>
+      </c>
+      <c r="E11">
+        <v>-3.37</v>
+      </c>
+      <c r="F11">
+        <v>32.831125133618308</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>sym_1</t>
   </si>
@@ -110,12 +110,27 @@
   </si>
   <si>
     <t>POWRUSDT</t>
+  </si>
+  <si>
+    <t>to move by 10%</t>
+  </si>
+  <si>
+    <t>to move by 30%</t>
+  </si>
+  <si>
+    <t>10000000AIDOGEUSDT</t>
+  </si>
+  <si>
+    <t>WIFUSDT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -175,6 +190,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,9 +514,11 @@
     <col min="9" max="9" width="16.77734375" customWidth="1"/>
     <col min="10" max="10" width="18.109375" customWidth="1"/>
     <col min="11" max="11" width="13.21875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,8 +555,14 @@
       <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -575,8 +599,20 @@
       <c r="L2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="5">
+        <f>ABS(H2-I2)/ABS(J2)/10</f>
+        <v>0.18666666666666654</v>
+      </c>
+      <c r="N2" s="5">
+        <f>M2*3</f>
+        <v>0.55999999999999961</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" ref="O2:O12" si="0">ABS(H2)-N2</f>
+        <v>2.4400000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -613,8 +649,20 @@
       <c r="L3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M12" si="1">ABS(H3-I3)/ABS(J3)/10</f>
+        <v>6.6666666666666735E-2</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N12" si="2">M3*3</f>
+        <v>0.20000000000000021</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -651,8 +699,20 @@
       <c r="L4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666582E-2</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2500000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -689,8 +749,20 @@
       <c r="L5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.22500000000000017</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.67500000000000049</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8249999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -727,8 +799,20 @@
       <c r="L6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999534E-2</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2999999999999986</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -751,22 +835,34 @@
         <v>36</v>
       </c>
       <c r="H7" s="4">
-        <v>-3.4566369371518162</v>
+        <v>-3.46</v>
       </c>
       <c r="I7">
         <v>-3.53</v>
       </c>
       <c r="J7" s="2">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>6.999999999999984E-2</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.20999999999999952</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2500000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -795,16 +891,28 @@
         <v>2.09</v>
       </c>
       <c r="J8" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -841,8 +949,20 @@
       <c r="L9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000013</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.4500000000000004</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8499999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -879,8 +999,20 @@
       <c r="L10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.1120000000000001</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.3360000000000003</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3639999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -916,6 +1048,118 @@
       </c>
       <c r="L11">
         <v>10</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.25000000000000022</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.75000000000000067</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4499999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-4.21</v>
+      </c>
+      <c r="E12">
+        <v>-3.37</v>
+      </c>
+      <c r="F12">
+        <v>230.84761076998251</v>
+      </c>
+      <c r="G12">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>-2.85</v>
+      </c>
+      <c r="I12">
+        <v>-2.7</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.1363636363636363</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.40909090909090889</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4409090909090914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-4.55</v>
+      </c>
+      <c r="E13">
+        <v>-3.37</v>
+      </c>
+      <c r="F13">
+        <v>1.503863540757917E-3</v>
+      </c>
+      <c r="G13">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>-2.7</v>
+      </c>
+      <c r="I13">
+        <v>-2.6</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" ref="M13" si="3">ABS(H13-I13)/ABS(J13)/10</f>
+        <v>0.12500000000000011</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" ref="N13" si="4">M13*3</f>
+        <v>0.37500000000000033</v>
+      </c>
+      <c r="O13" s="4">
+        <f>ABS(H13)-N13</f>
+        <v>2.3249999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>sym_1</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>WIFUSDT</t>
+  </si>
+  <si>
+    <t>PYTHUSDT</t>
+  </si>
+  <si>
+    <t>SXPUSDT</t>
   </si>
 </sst>
 </file>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1150,16 +1156,66 @@
         <v>10</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" ref="M13" si="3">ABS(H13-I13)/ABS(J13)/10</f>
+        <f t="shared" ref="M13:M14" si="3">ABS(H13-I13)/ABS(J13)/10</f>
         <v>0.12500000000000011</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" ref="N13" si="4">M13*3</f>
+        <f t="shared" ref="N13:N14" si="4">M13*3</f>
         <v>0.37500000000000033</v>
       </c>
       <c r="O13" s="4">
         <f>ABS(H13)-N13</f>
         <v>2.3249999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-4.6900000000000004</v>
+      </c>
+      <c r="E14">
+        <v>-3.37</v>
+      </c>
+      <c r="F14">
+        <v>1.3504799766271529</v>
+      </c>
+      <c r="G14">
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <v>-3.15</v>
+      </c>
+      <c r="I14">
+        <v>-3.08</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="3"/>
+        <v>6.999999999999984E-2</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.20999999999999952</v>
+      </c>
+      <c r="O14" s="4">
+        <f>ABS(H14)-N14</f>
+        <v>2.9400000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -504,7 +504,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1191,13 +1191,13 @@
         <v>37</v>
       </c>
       <c r="H14">
-        <v>-3.15</v>
+        <v>-3.14</v>
       </c>
       <c r="I14">
-        <v>-3.08</v>
+        <v>-3.16</v>
       </c>
       <c r="J14" s="2">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>13</v>
@@ -1207,15 +1207,15 @@
       </c>
       <c r="M14" s="5">
         <f t="shared" si="3"/>
-        <v>6.999999999999984E-2</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" si="4"/>
-        <v>0.20999999999999952</v>
+        <v>0.12000000000000011</v>
       </c>
       <c r="O14" s="4">
         <f>ABS(H14)-N14</f>
-        <v>2.9400000000000004</v>
+        <v>3.02</v>
       </c>
     </row>
   </sheetData>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>sym_1</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>SXPUSDT</t>
+  </si>
+  <si>
+    <t>ACHUSDT</t>
+  </si>
+  <si>
+    <t>MANAUSDT</t>
+  </si>
+  <si>
+    <t>ACEUSDT</t>
+  </si>
+  <si>
+    <t>NFPUSDT</t>
   </si>
 </sst>
 </file>
@@ -501,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,11 +1168,11 @@
         <v>10</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" ref="M13:M14" si="3">ABS(H13-I13)/ABS(J13)/10</f>
+        <f t="shared" ref="M13:M15" si="3">ABS(H13-I13)/ABS(J13)/10</f>
         <v>0.12500000000000011</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" ref="N13:N14" si="4">M13*3</f>
+        <f t="shared" ref="N13:N16" si="4">M13*3</f>
         <v>0.37500000000000033</v>
       </c>
       <c r="O13" s="4">
@@ -1216,6 +1228,106 @@
       <c r="O14" s="4">
         <f>ABS(H14)-N14</f>
         <v>3.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-4.91</v>
+      </c>
+      <c r="E15">
+        <v>-3.37</v>
+      </c>
+      <c r="F15">
+        <v>6.7356994993276756E-2</v>
+      </c>
+      <c r="G15">
+        <v>39</v>
+      </c>
+      <c r="H15">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="I15">
+        <v>-2.27</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666607</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="4"/>
+        <v>0.49999999999999822</v>
+      </c>
+      <c r="O15" s="4">
+        <f>ABS(H15)-N15</f>
+        <v>1.8200000000000016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>-6.58</v>
+      </c>
+      <c r="E16">
+        <v>-3.37</v>
+      </c>
+      <c r="F16">
+        <v>10.744368372618011</v>
+      </c>
+      <c r="G16">
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <v>-3.03</v>
+      </c>
+      <c r="I16">
+        <v>-2.94</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" ref="M16" si="5">ABS(H16-I16)/ABS(J16)/10</f>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.53999999999999915</v>
+      </c>
+      <c r="O16" s="4">
+        <f>ABS(H16)-N16</f>
+        <v>2.4900000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="zscore_change_%" sheetId="1" r:id="rId1"/>
+    <sheet name="trade_history" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>sym_1</t>
   </si>
@@ -140,6 +141,30 @@
   </si>
   <si>
     <t>NFPUSDT</t>
+  </si>
+  <si>
+    <t>starting_capital</t>
+  </si>
+  <si>
+    <t>pnl</t>
+  </si>
+  <si>
+    <t>pnl_%</t>
+  </si>
+  <si>
+    <t>ending_capital</t>
+  </si>
+  <si>
+    <t>CHRUSDT</t>
+  </si>
+  <si>
+    <t>RENUSDT</t>
+  </si>
+  <si>
+    <t>LQTYUSDT</t>
+  </si>
+  <si>
+    <t>1000LUNCUSDT</t>
   </si>
 </sst>
 </file>
@@ -513,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1201,7 @@
         <v>0.37500000000000033</v>
       </c>
       <c r="O13" s="4">
-        <f>ABS(H13)-N13</f>
+        <f t="shared" ref="O13:O18" si="5">ABS(H13)-N13</f>
         <v>2.3249999999999997</v>
       </c>
     </row>
@@ -1226,7 +1251,7 @@
         <v>0.12000000000000011</v>
       </c>
       <c r="O14" s="4">
-        <f>ABS(H14)-N14</f>
+        <f t="shared" si="5"/>
         <v>3.02</v>
       </c>
     </row>
@@ -1276,7 +1301,7 @@
         <v>0.49999999999999822</v>
       </c>
       <c r="O15" s="4">
-        <f>ABS(H15)-N15</f>
+        <f t="shared" si="5"/>
         <v>1.8200000000000016</v>
       </c>
     </row>
@@ -1318,7 +1343,7 @@
         <v>10</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" ref="M16" si="5">ABS(H16-I16)/ABS(J16)/10</f>
+        <f t="shared" ref="M16" si="6">ABS(H16-I16)/ABS(J16)/10</f>
         <v>0.17999999999999972</v>
       </c>
       <c r="N16" s="5">
@@ -1326,8 +1351,328 @@
         <v>0.53999999999999915</v>
       </c>
       <c r="O16" s="4">
-        <f>ABS(H16)-N16</f>
+        <f t="shared" si="5"/>
         <v>2.4900000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>0.01</v>
+      </c>
+      <c r="D17">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="E17">
+        <v>-3.37</v>
+      </c>
+      <c r="F17">
+        <v>4.9226962167359476</v>
+      </c>
+      <c r="G17">
+        <v>42</v>
+      </c>
+      <c r="H17">
+        <v>2.69</v>
+      </c>
+      <c r="I17">
+        <v>2.637</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" ref="M17" si="7">ABS(H17-I17)/ABS(J17)/10</f>
+        <v>0.11777777777777765</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" ref="N17" si="8">M17*3</f>
+        <v>0.35333333333333294</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="5"/>
+        <v>2.3366666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>0.01</v>
+      </c>
+      <c r="D18">
+        <v>-4.05</v>
+      </c>
+      <c r="E18">
+        <v>-3.37</v>
+      </c>
+      <c r="F18">
+        <v>9.8560394675630754</v>
+      </c>
+      <c r="G18">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <v>2.85</v>
+      </c>
+      <c r="I18">
+        <v>2.73</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" ref="M18" si="9">ABS(H18-I18)/ABS(J18)/10</f>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" ref="N18" si="10">M18*3</f>
+        <v>0.36000000000000032</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4899999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="4" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>300</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4">
+        <f t="shared" ref="C2:C11" si="0">B2/A2*100</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D11" si="1">A2+B2</f>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f t="shared" ref="A3:A11" si="2">D2</f>
+        <v>335</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" si="0"/>
+        <v>5.9701492537313428</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" si="2"/>
+        <v>355</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>11.267605633802818</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="2"/>
+        <v>395</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>12.658227848101266</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>445</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7415730337078648</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>475</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>18.947368421052634</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>565</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0796460176991154</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>605</v>
+      </c>
+      <c r="B9">
+        <v>-105</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>-17.355371900826448</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="B11">
+        <v>-500</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>-90.909090909090907</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" ref="A12" si="3">D11</f>
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12" si="4">B12/A12*100</f>
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12" si="5">A12+B12</f>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -541,7 +541,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1675,6 +1675,23 @@
         <v>58</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" ref="A13" si="6">D12</f>
+        <v>58</v>
+      </c>
+      <c r="B13">
+        <v>-8</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13" si="7">B13/A13*100</f>
+        <v>-13.793103448275861</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13" si="8">A13+B13</f>
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>sym_1</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>1000LUNCUSDT</t>
+  </si>
+  <si>
+    <t>PHBUSDT</t>
+  </si>
+  <si>
+    <t>OMNIUSDT</t>
   </si>
 </sst>
 </file>
@@ -538,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,7 +1207,7 @@
         <v>0.37500000000000033</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" ref="O13:O18" si="5">ABS(H13)-N13</f>
+        <f t="shared" ref="O13:O20" si="5">ABS(H13)-N13</f>
         <v>2.3249999999999997</v>
       </c>
     </row>
@@ -1443,16 +1449,116 @@
         <v>10</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" ref="M18" si="9">ABS(H18-I18)/ABS(J18)/10</f>
+        <f t="shared" ref="M18:M20" si="9">ABS(H18-I18)/ABS(J18)/10</f>
         <v>0.12000000000000011</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" ref="N18" si="10">M18*3</f>
+        <f t="shared" ref="N18:N20" si="10">M18*3</f>
         <v>0.36000000000000032</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="5"/>
         <v>2.4899999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>-5.14</v>
+      </c>
+      <c r="E19">
+        <v>-3.37</v>
+      </c>
+      <c r="F19">
+        <v>1.9174430530916049E-3</v>
+      </c>
+      <c r="G19">
+        <v>48</v>
+      </c>
+      <c r="H19">
+        <v>3.15</v>
+      </c>
+      <c r="I19">
+        <v>3.34</v>
+      </c>
+      <c r="J19" s="2">
+        <v>-0.32</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="9"/>
+        <v>5.9374999999999976E-2</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="10"/>
+        <v>0.17812499999999992</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="5"/>
+        <v>2.9718749999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>-4.12</v>
+      </c>
+      <c r="E20">
+        <v>-3.37</v>
+      </c>
+      <c r="F20">
+        <v>0.1606494884840427</v>
+      </c>
+      <c r="G20">
+        <v>27</v>
+      </c>
+      <c r="H20">
+        <v>2.95</v>
+      </c>
+      <c r="I20">
+        <v>3.4</v>
+      </c>
+      <c r="J20" s="2">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="9"/>
+        <v>8.1818181818181762E-2</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="10"/>
+        <v>0.24545454545454529</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="5"/>
+        <v>2.704545454545455</v>
       </c>
     </row>
   </sheetData>
@@ -1462,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1692,6 +1798,23 @@
         <v>50</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" ref="A14" si="9">D13</f>
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14" si="10">B14/A14*100</f>
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14" si="11">A14+B14</f>
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>sym_1</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>OMNIUSDT</t>
+  </si>
+  <si>
+    <t>GLMRUSDT</t>
+  </si>
+  <si>
+    <t>HBARUSDT</t>
   </si>
 </sst>
 </file>
@@ -180,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +198,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,10 +239,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -240,11 +254,54 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -544,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1561,6 +1618,56 @@
         <v>2.704545454545455</v>
       </c>
     </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>-5.09</v>
+      </c>
+      <c r="E21">
+        <v>-3.37</v>
+      </c>
+      <c r="F21">
+        <v>2.9103212003299128</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>-3.16</v>
+      </c>
+      <c r="I21">
+        <v>-3.2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>-0.06</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" ref="M21" si="11">ABS(H21-I21)/ABS(J21)/10</f>
+        <v>6.6666666666666735E-2</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" ref="N21" si="12">M21*3</f>
+        <v>0.20000000000000021</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" ref="O21" si="13">ABS(H21)-N21</f>
+        <v>2.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1568,17 +1675,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="4" width="25.21875" customWidth="1"/>
+    <col min="1" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1586,13 +1693,13 @@
         <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1600,222 +1707,244 @@
         <v>300</v>
       </c>
       <c r="B2">
+        <v>335</v>
+      </c>
+      <c r="C2">
         <v>35</v>
       </c>
-      <c r="C2" s="4">
-        <f t="shared" ref="C2:C11" si="0">B2/A2*100</f>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D11" si="1">A2+B2</f>
-        <v>335</v>
+      <c r="D2" s="6">
+        <f>C2/A2</f>
+        <v>0.11666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A11" si="2">D2</f>
+        <f>B2</f>
         <v>335</v>
       </c>
       <c r="B3">
+        <v>355</v>
+      </c>
+      <c r="C3">
         <v>20</v>
       </c>
-      <c r="C3" s="4">
-        <f t="shared" si="0"/>
-        <v>5.9701492537313428</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="1"/>
-        <v>355</v>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D15" si="0">C3/A3</f>
+        <v>5.9701492537313432E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A4:A15" si="1">B3</f>
         <v>355</v>
       </c>
       <c r="B4">
+        <v>395</v>
+      </c>
+      <c r="C4">
         <v>40</v>
       </c>
-      <c r="C4" s="4">
-        <f t="shared" si="0"/>
-        <v>11.267605633802818</v>
-      </c>
-      <c r="D4">
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11267605633802817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
         <f t="shared" si="1"/>
         <v>395</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="2"/>
-        <v>395</v>
-      </c>
       <c r="B5">
+        <v>445</v>
+      </c>
+      <c r="C5">
         <v>50</v>
       </c>
-      <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>12.658227848101266</v>
-      </c>
-      <c r="D5">
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12658227848101267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="2"/>
-        <v>445</v>
-      </c>
       <c r="B6">
+        <v>475</v>
+      </c>
+      <c r="C6">
         <v>30</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7415730337078648</v>
-      </c>
-      <c r="D6">
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>6.741573033707865E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
         <f t="shared" si="1"/>
         <v>475</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="2"/>
-        <v>475</v>
-      </c>
       <c r="B7">
+        <v>565</v>
+      </c>
+      <c r="C7">
         <v>90</v>
       </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>18.947368421052634</v>
-      </c>
-      <c r="D7">
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18947368421052632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
         <f t="shared" si="1"/>
         <v>565</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="2"/>
-        <v>565</v>
-      </c>
       <c r="B8">
+        <v>605</v>
+      </c>
+      <c r="C8">
         <v>40</v>
       </c>
-      <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0796460176991154</v>
-      </c>
-      <c r="D8">
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>7.0796460176991149E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
         <f t="shared" si="1"/>
         <v>605</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="2"/>
-        <v>605</v>
-      </c>
       <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
         <v>-105</v>
       </c>
-      <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>-17.355371900826448</v>
-      </c>
-      <c r="D9">
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.17355371900826447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
       <c r="B10">
+        <v>550</v>
+      </c>
+      <c r="C10">
         <v>50</v>
       </c>
-      <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D10">
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="2"/>
-        <v>550</v>
-      </c>
       <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>-500</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>-90.909090909090907</v>
-      </c>
-      <c r="D11">
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" ref="A12" si="3">D11</f>
-        <v>50</v>
-      </c>
       <c r="B12">
+        <v>58</v>
+      </c>
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
-        <f t="shared" ref="C12" si="4">B12/A12*100</f>
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12" si="5">A12+B12</f>
-        <v>58</v>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" ref="A13" si="6">D12</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
         <v>-8</v>
       </c>
-      <c r="C13" s="4">
-        <f t="shared" ref="C13" si="7">B13/A13*100</f>
-        <v>-13.793103448275861</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13" si="8">A13+B13</f>
-        <v>50</v>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.13793103448275862</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" ref="A14" si="9">D13</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B14">
+        <v>68</v>
+      </c>
+      <c r="C14">
         <v>18</v>
       </c>
-      <c r="C14" s="4">
-        <f t="shared" ref="C14" si="10">B14/A14*100</f>
-        <v>36</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14" si="11">A14+B14</f>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
+      <c r="B15">
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.22058823529411764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:D15">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:D16">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="zscore_change_%" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>sym_1</t>
   </si>
@@ -116,9 +116,6 @@
     <t>to move by 10%</t>
   </si>
   <si>
-    <t>to move by 30%</t>
-  </si>
-  <si>
     <t>10000000AIDOGEUSDT</t>
   </si>
   <si>
@@ -177,6 +174,21 @@
   </si>
   <si>
     <t>HBARUSDT</t>
+  </si>
+  <si>
+    <t>DGBUSDT</t>
+  </si>
+  <si>
+    <t>EOSUSDT</t>
+  </si>
+  <si>
+    <t>final_zscore</t>
+  </si>
+  <si>
+    <t>GASUSDT</t>
+  </si>
+  <si>
+    <t>SEIUSDT</t>
   </si>
 </sst>
 </file>
@@ -260,7 +272,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -283,6 +295,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -298,6 +320,156 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -601,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,7 +796,7 @@
     <col min="14" max="14" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,10 +837,10 @@
         <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -709,16 +881,12 @@
         <f>ABS(H2-I2)/ABS(J2)/10</f>
         <v>0.18666666666666654</v>
       </c>
-      <c r="N2" s="5">
-        <f>M2*3</f>
-        <v>0.55999999999999961</v>
-      </c>
-      <c r="O2" s="4">
-        <f t="shared" ref="O2:O12" si="0">ABS(H2)-N2</f>
-        <v>2.4400000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N2" s="4">
+        <f>ABS(H2)- (2* M2)</f>
+        <v>2.6266666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -756,19 +924,15 @@
         <v>10</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" ref="M3:M12" si="1">ABS(H3-I3)/ABS(J3)/10</f>
+        <f t="shared" ref="M3:M12" si="0">ABS(H3-I3)/ABS(J3)/10</f>
         <v>6.6666666666666735E-2</v>
       </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3:N12" si="2">M3*3</f>
-        <v>0.20000000000000021</v>
-      </c>
-      <c r="O3" s="4">
-        <f t="shared" si="0"/>
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N3" s="4">
+        <f t="shared" ref="N3:N24" si="1">ABS(H3)- (2* M3)</f>
+        <v>3.7166666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -806,19 +970,15 @@
         <v>10</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.6666666666666582E-2</v>
       </c>
-      <c r="N4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.19999999999999973</v>
-      </c>
-      <c r="O4" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2500000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N4" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3166666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -856,19 +1016,15 @@
         <v>10</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.22500000000000017</v>
       </c>
-      <c r="N5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.67500000000000049</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="0"/>
-        <v>1.8249999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N5" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -906,19 +1062,15 @@
         <v>10</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999534E-2</v>
       </c>
-      <c r="N6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.2999999999999986</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N6" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -956,19 +1108,15 @@
         <v>10</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="N7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.20999999999999952</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2500000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1006,19 +1154,15 @@
         <v>10</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.20999999999999996</v>
       </c>
-      <c r="N8" s="5">
-        <f t="shared" si="2"/>
-        <v>0.62999999999999989</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="0"/>
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1056,19 +1200,15 @@
         <v>10</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.15000000000000013</v>
       </c>
-      <c r="N9" s="5">
-        <f t="shared" si="2"/>
-        <v>0.4500000000000004</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.8499999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1106,19 +1246,15 @@
         <v>10</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1120000000000001</v>
       </c>
-      <c r="N10" s="5">
-        <f t="shared" si="2"/>
-        <v>0.3360000000000003</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3639999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
+        <v>2.476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1156,19 +1292,15 @@
         <v>10</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.25000000000000022</v>
       </c>
-      <c r="N11" s="5">
-        <f t="shared" si="2"/>
-        <v>0.75000000000000067</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4499999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N11" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6999999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1206,24 +1338,20 @@
         <v>10</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1363636363636363</v>
       </c>
-      <c r="N12" s="5">
-        <f t="shared" si="2"/>
-        <v>0.40909090909090889</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="0"/>
-        <v>2.4409090909090914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N12" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5772727272727276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1256,24 +1384,20 @@
         <v>10</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" ref="M13:M15" si="3">ABS(H13-I13)/ABS(J13)/10</f>
+        <f t="shared" ref="M13:M15" si="2">ABS(H13-I13)/ABS(J13)/10</f>
         <v>0.12500000000000011</v>
       </c>
-      <c r="N13" s="5">
-        <f t="shared" ref="N13:N16" si="4">M13*3</f>
-        <v>0.37500000000000033</v>
-      </c>
-      <c r="O13" s="4">
-        <f t="shared" ref="O13:O20" si="5">ABS(H13)-N13</f>
-        <v>2.3249999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N13" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1306,24 +1430,20 @@
         <v>10</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="N14" s="5">
-        <f t="shared" si="4"/>
-        <v>0.12000000000000011</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="5"/>
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N14" s="4">
+        <f t="shared" si="1"/>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1356,24 +1476,20 @@
         <v>10</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.16666666666666607</v>
       </c>
-      <c r="N15" s="5">
-        <f t="shared" si="4"/>
-        <v>0.49999999999999822</v>
-      </c>
-      <c r="O15" s="4">
-        <f t="shared" si="5"/>
-        <v>1.8200000000000016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9866666666666677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1406,24 +1522,20 @@
         <v>10</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" ref="M16" si="6">ABS(H16-I16)/ABS(J16)/10</f>
+        <f t="shared" ref="M16" si="3">ABS(H16-I16)/ABS(J16)/10</f>
         <v>0.17999999999999972</v>
       </c>
-      <c r="N16" s="5">
-        <f t="shared" si="4"/>
-        <v>0.53999999999999915</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" si="5"/>
-        <v>2.4900000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N16" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6700000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
       </c>
       <c r="C17">
         <v>0.01</v>
@@ -1456,24 +1568,20 @@
         <v>10</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" ref="M17" si="7">ABS(H17-I17)/ABS(J17)/10</f>
+        <f t="shared" ref="M17" si="4">ABS(H17-I17)/ABS(J17)/10</f>
         <v>0.11777777777777765</v>
       </c>
-      <c r="N17" s="5">
-        <f t="shared" ref="N17" si="8">M17*3</f>
-        <v>0.35333333333333294</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="5"/>
-        <v>2.3366666666666669</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N17" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4544444444444444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
       </c>
       <c r="C18">
         <v>0.01</v>
@@ -1506,24 +1614,20 @@
         <v>10</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" ref="M18:M20" si="9">ABS(H18-I18)/ABS(J18)/10</f>
+        <f t="shared" ref="M18:M20" si="5">ABS(H18-I18)/ABS(J18)/10</f>
         <v>0.12000000000000011</v>
       </c>
-      <c r="N18" s="5">
-        <f t="shared" ref="N18:N20" si="10">M18*3</f>
-        <v>0.36000000000000032</v>
-      </c>
-      <c r="O18" s="4">
-        <f t="shared" si="5"/>
-        <v>2.4899999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N18" s="4">
+        <f t="shared" si="1"/>
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1556,24 +1660,20 @@
         <v>10</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5.9374999999999976E-2</v>
       </c>
-      <c r="N19" s="5">
-        <f t="shared" si="10"/>
-        <v>0.17812499999999992</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" si="5"/>
-        <v>2.9718749999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N19" s="4">
+        <f t="shared" si="1"/>
+        <v>3.03125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1606,24 +1706,20 @@
         <v>10</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>8.1818181818181762E-2</v>
       </c>
-      <c r="N20" s="5">
-        <f t="shared" si="10"/>
-        <v>0.24545454545454529</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" si="5"/>
-        <v>2.704545454545455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N20" s="4">
+        <f t="shared" si="1"/>
+        <v>2.7863636363636366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1656,16 +1752,150 @@
         <v>10</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" ref="M21" si="11">ABS(H21-I21)/ABS(J21)/10</f>
+        <f t="shared" ref="M21:M24" si="6">ABS(H21-I21)/ABS(J21)/10</f>
         <v>6.6666666666666735E-2</v>
       </c>
-      <c r="N21" s="5">
-        <f t="shared" ref="N21" si="12">M21*3</f>
-        <v>0.20000000000000021</v>
-      </c>
-      <c r="O21" s="4">
-        <f t="shared" ref="O21" si="13">ABS(H21)-N21</f>
-        <v>2.96</v>
+      <c r="N21" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0266666666666668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="E22">
+        <v>-3.37</v>
+      </c>
+      <c r="F22">
+        <v>1.3904255969859379E-2</v>
+      </c>
+      <c r="G22">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>3.26</v>
+      </c>
+      <c r="I22">
+        <v>2.95</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="6"/>
+        <v>0.11481481481481466</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0303703703703704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>0.01</v>
+      </c>
+      <c r="D23">
+        <v>-3.97</v>
+      </c>
+      <c r="E23">
+        <v>-3.37</v>
+      </c>
+      <c r="F23">
+        <v>8.87790393076896E-2</v>
+      </c>
+      <c r="G23">
+        <v>39</v>
+      </c>
+      <c r="H23">
+        <v>-2.71</v>
+      </c>
+      <c r="I23">
+        <v>-2.76</v>
+      </c>
+      <c r="J23" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5100000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="E24">
+        <v>-3.37</v>
+      </c>
+      <c r="F24">
+        <v>8.70440655247714E-3</v>
+      </c>
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <v>-2.42</v>
+      </c>
+      <c r="I24">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24" s="5">
+        <f t="shared" si="6"/>
+        <v>0.14000000000000012</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1399999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1675,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,16 +1920,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1710,6 +1940,7 @@
         <v>335</v>
       </c>
       <c r="C2">
+        <f>B2-A2</f>
         <v>35</v>
       </c>
       <c r="D2" s="6">
@@ -1726,222 +1957,348 @@
         <v>355</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C16" si="0">B3-A3</f>
         <v>20</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D15" si="0">C3/A3</f>
+        <f t="shared" ref="D3:D15" si="1">C3/A3</f>
         <v>5.9701492537313432E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A15" si="1">B3</f>
+        <f t="shared" ref="A4:A15" si="2">B3</f>
         <v>355</v>
       </c>
       <c r="B4">
         <v>395</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11267605633802817</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>395</v>
       </c>
       <c r="B5">
         <v>445</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12658227848101267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>445</v>
       </c>
       <c r="B6">
         <v>475</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.741573033707865E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>475</v>
       </c>
       <c r="B7">
         <v>565</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18947368421052632</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>565</v>
       </c>
       <c r="B8">
         <v>605</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0796460176991149E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>605</v>
       </c>
       <c r="B9">
         <v>500</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
         <v>-105</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.17355371900826447</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="B10">
         <v>550</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="B11">
         <v>50</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
         <v>-500</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.90909090909090906</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B12">
         <v>58</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B13">
         <v>50</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.13793103448275862</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B14">
         <v>68</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B15">
         <v>83</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.22058823529411764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" ref="A16" si="3">B15</f>
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.22058823529411764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D16" s="6"/>
+        <v>-49</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16" si="4">C16/A16</f>
+        <v>-0.59036144578313254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" ref="A17" si="5">B16</f>
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17" si="6">B17-A17</f>
+        <v>-9</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" ref="D17" si="7">C17/A17</f>
+        <v>-0.26470588235294118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" ref="A18" si="8">B17</f>
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18" si="9">B18-A18</f>
+        <v>5</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" ref="D18" si="10">C18/A18</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" ref="A19" si="11">B18</f>
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19" si="12">B19-A19</f>
+        <v>5</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19" si="13">C19/A19</f>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D15">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+  <conditionalFormatting sqref="C2:D15 C2:C16">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:D16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:D17">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:D18">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:D19">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>sym_1</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>SEIUSDT</t>
+  </si>
+  <si>
+    <t>BEAMUSDT</t>
+  </si>
+  <si>
+    <t>WOOUSDT</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -255,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -267,6 +276,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +938,7 @@
         <v>6.6666666666666735E-2</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" ref="N3:N24" si="1">ABS(H3)- (2* M3)</f>
+        <f t="shared" ref="N3:N25" si="1">ABS(H3)- (2* M3)</f>
         <v>3.7166666666666668</v>
       </c>
     </row>
@@ -1752,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" ref="M21:M24" si="6">ABS(H21-I21)/ABS(J21)/10</f>
+        <f t="shared" ref="M21:M25" si="6">ABS(H21-I21)/ABS(J21)/10</f>
         <v>6.6666666666666735E-2</v>
       </c>
       <c r="N21" s="4">
@@ -1896,6 +1906,52 @@
       <c r="N24" s="4">
         <f t="shared" si="1"/>
         <v>2.1399999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>-4.5199999999999996</v>
+      </c>
+      <c r="E25">
+        <v>-3.37</v>
+      </c>
+      <c r="F25">
+        <v>8.6439838527436877E-2</v>
+      </c>
+      <c r="G25">
+        <v>36</v>
+      </c>
+      <c r="H25">
+        <v>3.15</v>
+      </c>
+      <c r="I25">
+        <v>2.46</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="6"/>
+        <v>0.26538461538461539</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6192307692307693</v>
       </c>
     </row>
   </sheetData>
@@ -1905,400 +1961,445 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2">
         <v>300</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>335</v>
       </c>
-      <c r="C2">
-        <f>B2-A2</f>
+      <c r="D2">
+        <f>C2-B2</f>
         <v>35</v>
       </c>
-      <c r="D2" s="6">
-        <f>C2/A2</f>
+      <c r="E2" s="6">
+        <f>D2/B2</f>
         <v>0.11666666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>B2</f>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <f>C2</f>
         <v>335</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>355</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C16" si="0">B3-A3</f>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="0">C3-B3</f>
         <v>20</v>
       </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:D15" si="1">C3/A3</f>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E15" si="1">D3/B3</f>
         <v>5.9701492537313432E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" ref="A4:A15" si="2">B3</f>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f t="shared" ref="B4:B15" si="2">C3</f>
         <v>355</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>395</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <f t="shared" si="1"/>
         <v>0.11267605633802817</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5">
         <f t="shared" si="2"/>
         <v>395</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>445</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <f t="shared" si="1"/>
         <v>0.12658227848101267</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6">
         <f t="shared" si="2"/>
         <v>445</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>475</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <f t="shared" si="1"/>
         <v>6.741573033707865E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7">
         <f t="shared" si="2"/>
         <v>475</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>565</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <f t="shared" si="1"/>
         <v>0.18947368421052632</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8">
         <f t="shared" si="2"/>
         <v>565</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>605</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <f t="shared" si="1"/>
         <v>7.0796460176991149E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9">
         <f t="shared" si="2"/>
         <v>605</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>500</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>-105</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
         <v>-0.17355371900826447</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>550</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11">
         <f t="shared" si="2"/>
         <v>550</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>50</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>-500</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
         <v>-0.90909090909090906</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>58</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>50</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="6">
         <f t="shared" si="1"/>
         <v>-0.13793103448275862</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>68</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>83</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <f t="shared" si="1"/>
         <v>0.22058823529411764</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" ref="A16" si="3">B15</f>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="shared" ref="B16" si="3">C15</f>
         <v>83</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>34</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>-49</v>
       </c>
-      <c r="D16" s="6">
-        <f t="shared" ref="D16" si="4">C16/A16</f>
+      <c r="E16" s="6">
+        <f t="shared" ref="E16" si="4">D16/B16</f>
         <v>-0.59036144578313254</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" ref="A17" si="5">B16</f>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f t="shared" ref="B17" si="5">C16</f>
         <v>34</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>25</v>
       </c>
-      <c r="C17">
-        <f t="shared" ref="C17" si="6">B17-A17</f>
+      <c r="D17">
+        <f t="shared" ref="D17" si="6">C17-B17</f>
         <v>-9</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" ref="D17" si="7">C17/A17</f>
+      <c r="E17" s="6">
+        <f t="shared" ref="E17" si="7">D17/B17</f>
         <v>-0.26470588235294118</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" ref="A18" si="8">B17</f>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f t="shared" ref="B18" si="8">C17</f>
         <v>25</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>30</v>
       </c>
-      <c r="C18">
-        <f t="shared" ref="C18" si="9">B18-A18</f>
+      <c r="D18">
+        <f t="shared" ref="D18" si="9">C18-B18</f>
         <v>5</v>
       </c>
-      <c r="D18" s="6">
-        <f t="shared" ref="D18" si="10">C18/A18</f>
+      <c r="E18" s="6">
+        <f t="shared" ref="E18" si="10">D18/B18</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" ref="A19" si="11">B18</f>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <f ca="1">TODAY()</f>
+        <v>45613</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19" si="11">C18</f>
         <v>30</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>35</v>
       </c>
-      <c r="C19">
-        <f t="shared" ref="C19" si="12">B19-A19</f>
+      <c r="D19">
+        <f t="shared" ref="D19" si="12">C19-B19</f>
         <v>5</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19" si="13">C19/A19</f>
+      <c r="E19" s="6">
+        <f t="shared" ref="E19" si="13">D19/B19</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <f ca="1">TODAY()</f>
+        <v>45613</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20" si="14">C19</f>
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="15">C20-B20</f>
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" ref="E20" si="16">D20/B20</f>
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D15 C2:C16">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="lessThan">
+  <conditionalFormatting sqref="D2:E15 D2:D16">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:D16">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThan">
+  <conditionalFormatting sqref="D16:E16">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="lessThan">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:D17">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="D17:E17">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:D18">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="D18:E18">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:D19">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -282,7 +282,87 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1961,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2281,10 +2361,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <f ca="1">TODAY()</f>
-        <v>45613</v>
-      </c>
+      <c r="A19" s="7"/>
       <c r="B19">
         <f t="shared" ref="B19" si="11">C18</f>
         <v>30</v>
@@ -2302,10 +2379,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <f ca="1">TODAY()</f>
-        <v>45613</v>
-      </c>
+      <c r="A20" s="7"/>
       <c r="B20">
         <f t="shared" ref="B20" si="14">C19</f>
         <v>35</v>
@@ -2322,80 +2396,150 @@
         <v>0.22857142857142856</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21">
+        <f t="shared" ref="B21" si="17">C20</f>
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21" si="18">C21-B21</f>
+        <v>-24</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" ref="E21" si="19">D21/B21</f>
+        <v>-0.55813953488372092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>45617</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="20">C21</f>
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22" si="21">C22-B22</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" ref="E22" si="22">D22/B22</f>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E15 D2:D16">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:E21">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -282,7 +282,47 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2041,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2434,112 +2474,148 @@
         <v>0.15789473684210525</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>45618</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="23">C22</f>
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23" si="24">C23-B23</f>
+        <v>-2</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" ref="E23" si="25">D23/B23</f>
+        <v>-9.0909090909090912E-2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E15 D2:D16">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/zscore_logic.xlsx
+++ b/zscore_logic.xlsx
@@ -2084,7 +2084,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2483,15 +2483,15 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>22.3</v>
       </c>
       <c r="D23">
         <f t="shared" ref="D23" si="24">C23-B23</f>
-        <v>-2</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" ref="E23" si="25">D23/B23</f>
-        <v>-9.0909090909090912E-2</v>
+        <v>1.3636363636363669E-2</v>
       </c>
     </row>
   </sheetData>
